--- a/Analiza comparativa.xlsx
+++ b/Analiza comparativa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4b485211cea7a382/Desktop/an4 ^M pain/asc/tema3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="8_{8FF1A78E-E676-4146-847E-138E6263B23C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8FCB7DC0-3C4B-4AAA-860D-200BE95879FF}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="8_{8FF1A78E-E676-4146-847E-138E6263B23C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E8993D1-3091-42DD-A6DA-5406A0528C08}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F8DCEBF7-CFC3-48AB-BC15-0F18BBA3A8A2}"/>
   </bookViews>
@@ -52,7 +52,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -96,7 +96,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1432,7 +1432,7 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -1498,7 +1498,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:bodyPr rot="5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
@@ -1601,7 +1601,7 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="0"/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="0"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -1647,7 +1647,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="0"/>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="0"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
@@ -2355,15 +2355,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:colOff>57978</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>80960</xdr:rowOff>
+      <xdr:rowOff>31264</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
+      <xdr:colOff>162753</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>102704</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2389,6 +2389,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2711,7 +2715,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="V23" sqref="V23"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
